--- a/biology/Botanique/Zea_mays_subsp._mexicana/Zea_mays_subsp._mexicana.xlsx
+++ b/biology/Botanique/Zea_mays_subsp._mexicana/Zea_mays_subsp._mexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zea mays subsp. mexicana est une sous-espèce du genre Zea. C'est une téosinte, plante herbacée annuelle, proche du maïs, endémique du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs populations sont décrites (Nobogame, Durango, Plateau central, Chalco, Puebla). Le long d'une ligne nord-sud, les races se distinguent par la hauteur de la plante atteignant 1,5 m pour les plus au nord et à 4 m pour les plus méridionales.
 10 à 20 panicules mâles (35 en conditions exceptionnelles) avec des épillets de 6 mm à 10 mm de long (ce qui les distingue de Z. parviglumis et huehuetenangensis) en septembre-novembre.
@@ -548,7 +562,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur les plateaux du centre et du nord du Mexique entre les vallées de Nobogame et de Puebla entre 1 700 mètres et 2 600 mètres d'altitude, où elle est assez répandue et se comporte comme une adventice des champs de maïs.
 </t>
@@ -579,15 +595,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Euchlaena bourgeaei E.Fourn.[2]
-Euchlaena giovanninii E.Fourn.[2]
-Euchlaena mexicana Schrad.[2] [3]
-Reana giovanninii Brign.[2]
-Zea mays mexicana (Schrad.) H.H. Iltis[3]
-Zea mays subsp. mexicana (Schrad.) Iltis[2] [3]
-Zea mexicana (Schrad.) Kuntze (préféré par BioLib)[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euchlaena bourgeaei E.Fourn.
+Euchlaena giovanninii E.Fourn.
+Euchlaena mexicana Schrad. 
+Reana giovanninii Brign.
+Zea mays mexicana (Schrad.) H.H. Iltis
+Zea mays subsp. mexicana (Schrad.) Iltis 
+Zea mexicana (Schrad.) Kuntze (préféré par BioLib)</t>
         </is>
       </c>
     </row>
@@ -615,7 +633,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nature, elle s'hybride rarement avec le maïs cultivé (60 % de succès). C'est la seconde espèce qui présente la plus grande affinité génomique avec le maïs (la première étant Zea mays huehuetenangensis).
 Cette hybridation fait l'objet de recherches pour sa résistance aux maladies et prédateurs sa tolérance aux sols secs et sa richesse en méthionine (un des points faibles nutritionnels du maïs cultivé).
